--- a/sensor data.xlsx
+++ b/sensor data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>std dev</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>actual</t>
+  </si>
+  <si>
+    <t>Magnetometer sensor data</t>
   </si>
 </sst>
 </file>
@@ -69,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,23 +408,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1">
@@ -427,18 +437,27 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>295</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
@@ -448,19 +467,29 @@
       <c r="E2">
         <v>322</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2">
         <f>_xlfn.STDEV.P(E2:E101)</f>
         <v>2.5079872407968904</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>358</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>_xlfn.STDEV.P(I2:I50)</f>
+        <v>2.3888886198364649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>297</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3">
@@ -470,391 +499,542 @@
       <c r="E3">
         <v>324</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3">
         <f>AVERAGE(E2:E101)</f>
         <v>324.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>360</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(I2:I50)</f>
+        <v>357.38775510204084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>301</v>
       </c>
       <c r="E4">
         <v>324</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>298</v>
       </c>
       <c r="E5">
         <v>324</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>299</v>
       </c>
       <c r="E6">
         <v>325</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>299</v>
       </c>
       <c r="E7">
         <v>325</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>299</v>
       </c>
       <c r="E8">
         <v>327</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>302</v>
       </c>
       <c r="E9">
         <v>327</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>299</v>
       </c>
       <c r="E10">
         <v>323</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>299</v>
       </c>
       <c r="E11">
         <v>327</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>298</v>
       </c>
       <c r="E12">
         <v>326</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>297</v>
       </c>
       <c r="E13">
         <v>328</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>299</v>
       </c>
       <c r="E14">
         <v>321</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>297</v>
       </c>
       <c r="E15">
         <v>325</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>299</v>
       </c>
       <c r="E16">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="I16">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>297</v>
       </c>
       <c r="E17">
         <v>322</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="I17">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>299</v>
       </c>
       <c r="E18">
         <v>323</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>299</v>
       </c>
       <c r="E19">
         <v>327</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="I19">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>297</v>
       </c>
       <c r="E20">
         <v>325</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="I20">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>297</v>
       </c>
       <c r="E21">
         <v>324</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="I21">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="E22">
         <v>325</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="I22">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>298</v>
       </c>
       <c r="E23">
         <v>324</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>299</v>
       </c>
       <c r="E24">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>299</v>
       </c>
       <c r="E25">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>294</v>
       </c>
       <c r="E26">
         <v>323</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="I26">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>298</v>
       </c>
       <c r="E27">
         <v>323</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="I27">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>295</v>
       </c>
       <c r="E28">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="I28">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>295</v>
       </c>
       <c r="E29">
         <v>331</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="I29">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>293</v>
       </c>
       <c r="E30">
         <v>324</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="I30">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>300</v>
       </c>
       <c r="E31">
         <v>328</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="I31">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>296</v>
       </c>
       <c r="E32">
         <v>326</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>297</v>
       </c>
       <c r="E33">
         <v>329</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="I33">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>298</v>
       </c>
       <c r="E34">
         <v>326</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="I34">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>295</v>
       </c>
       <c r="E35">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="I35">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>295</v>
       </c>
       <c r="E36">
         <v>326</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="I36">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>297</v>
       </c>
       <c r="E37">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="I37">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>296</v>
       </c>
       <c r="E38">
         <v>327</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="I38">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>294</v>
       </c>
       <c r="E39">
         <v>325</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="I39">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>298</v>
       </c>
       <c r="E40">
         <v>320</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="I40">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>297</v>
       </c>
       <c r="E41">
         <v>322</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="I41">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>295</v>
       </c>
       <c r="E42">
         <v>322</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="I42">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>295</v>
       </c>
       <c r="E43">
         <v>329</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="I43">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>298</v>
       </c>
       <c r="E44">
         <v>327</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="I44">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>300</v>
       </c>
       <c r="E45">
         <v>325</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="I45">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>293</v>
       </c>
       <c r="E46">
         <v>324</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="I46">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>298</v>
       </c>
       <c r="E47">
         <v>328</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="I47">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>298</v>
       </c>
       <c r="E48">
         <v>325</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="I48">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>298</v>
       </c>
       <c r="E49">
         <v>327</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="I49">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>297</v>
       </c>
       <c r="E50">
         <v>329</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="I50">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>300</v>
       </c>
@@ -862,7 +1042,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>302</v>
       </c>
@@ -870,7 +1050,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>292</v>
       </c>
@@ -878,7 +1058,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>296</v>
       </c>
@@ -886,7 +1066,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>298</v>
       </c>
@@ -894,7 +1074,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>298</v>
       </c>
@@ -902,7 +1082,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>295</v>
       </c>
@@ -910,7 +1090,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>297</v>
       </c>
@@ -918,7 +1098,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>298</v>
       </c>
@@ -926,7 +1106,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>297</v>
       </c>
@@ -934,7 +1114,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>300</v>
       </c>
@@ -942,7 +1122,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>291</v>
       </c>
@@ -950,7 +1130,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>297</v>
       </c>
@@ -958,7 +1138,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>297</v>
       </c>
